--- a/FMAC/FMAC_Performace_Comparison.xlsx
+++ b/FMAC/FMAC_Performace_Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\STM32G4\FMAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCF906D-0310-49AF-8B6C-E9A7832D36FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FEC80E-15BF-46E1-9BA3-66A716805E1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="751" xr2:uid="{B885060C-AB6F-4130-9CBC-4738680B4D59}"/>
   </bookViews>
@@ -13438,13 +13438,15 @@
   <dimension ref="A3:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="A3" sqref="A3:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="11" width="12.7109375" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="8" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="13" max="15" width="14.7109375" customWidth="1"/>
   </cols>
@@ -13765,15 +13767,15 @@
         <v>0.47775882878519543</v>
       </c>
       <c r="P8" s="15">
-        <f>1-C8/C$7</f>
+        <f t="shared" ref="P8:R9" si="5">1-C8/C$7</f>
         <v>-5.6959881870218183</v>
       </c>
       <c r="Q8" s="15">
-        <f>1-D8/D$7</f>
+        <f t="shared" si="5"/>
         <v>-1.0283312632213062</v>
       </c>
       <c r="R8" s="15">
-        <f>1-E8/E$7</f>
+        <f t="shared" si="5"/>
         <v>-0.53841712741035441</v>
       </c>
     </row>
@@ -13797,55 +13799,55 @@
         <v>557056</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" ref="F9" si="5">1000*C9/168000000</f>
+        <f t="shared" ref="F9" si="6">1000*C9/168000000</f>
         <v>0.10373701298701297</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" ref="G9" si="6">1000*D9/168000000</f>
+        <f t="shared" ref="G9" si="7">1000*D9/168000000</f>
         <v>0.828954785954786</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" ref="H9" si="7">1000*E9/168000000</f>
+        <f t="shared" ref="H9" si="8">1000*E9/168000000</f>
         <v>3.315809523809524</v>
       </c>
       <c r="I9" s="12">
-        <f t="shared" ref="I9" si="8">(C$4*168000000/C9)/1000000</f>
+        <f t="shared" ref="I9" si="9">(C$4*168000000/C9)/1000000</f>
         <v>2.4677787862664706</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" ref="J9" si="9">(D$4*168000000/D9)/1000000</f>
+        <f t="shared" ref="J9" si="10">(D$4*168000000/D9)/1000000</f>
         <v>2.4705810675079509</v>
       </c>
       <c r="K9" s="12">
-        <f t="shared" ref="K9" si="10">(E$4*168000000/E9)/1000000</f>
+        <f t="shared" ref="K9" si="11">(E$4*168000000/E9)/1000000</f>
         <v>2.4705882352941178</v>
       </c>
       <c r="L9" s="12">
-        <f t="shared" ref="L9:L17" si="11">168000000/(2*B9)/1000000</f>
+        <f t="shared" ref="L9:L17" si="12">168000000/(2*B9)/1000000</f>
         <v>2.625</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" ref="M9:M17" si="12">I9/$L9</f>
+        <f t="shared" ref="M9:M17" si="13">I9/$L9</f>
         <v>0.94010620429198877</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" ref="N9:O17" si="13">J9/$L9</f>
+        <f t="shared" ref="N9:O17" si="14">J9/$L9</f>
         <v>0.94117374000302889</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="P9" s="15">
-        <f>1-C9/C$7</f>
+        <f t="shared" si="5"/>
         <v>0.23364191506131937</v>
       </c>
       <c r="Q9" s="15">
-        <f>1-D9/D$7</f>
+        <f t="shared" si="5"/>
         <v>0.22065265027569048</v>
       </c>
       <c r="R9" s="15">
-        <f>1-E9/E$7</f>
+        <f t="shared" si="5"/>
         <v>0.21907061221442836</v>
       </c>
     </row>
@@ -13893,11 +13895,11 @@
         <v>0.23661785714285713</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" ref="G11:H13" si="14">1000*D11/168000000</f>
+        <f t="shared" ref="G11:H13" si="15">1000*D11/168000000</f>
         <v>1.8689982563732561</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.4654801587301591</v>
       </c>
       <c r="I11" s="12">
@@ -13905,27 +13907,27 @@
         <v>1.0819132718518407</v>
       </c>
       <c r="J11" s="12">
-        <f t="shared" ref="J11:K13" si="15">(D$4*168000000/D11)/1000000</f>
+        <f t="shared" ref="J11:K13" si="16">(D$4*168000000/D11)/1000000</f>
         <v>1.0957741629861615</v>
       </c>
       <c r="K11" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0973172288751241</v>
       </c>
       <c r="L11" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3125</v>
       </c>
       <c r="M11" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.82431487379187862</v>
       </c>
       <c r="N11" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.83487555275136116</v>
       </c>
       <c r="O11" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.83605122200009452</v>
       </c>
       <c r="P11" s="6"/>
@@ -13952,55 +13954,55 @@
         <v>1529001.2916666667</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" ref="F12:F13" si="16">1000*C12/168000000</f>
+        <f t="shared" ref="F12:F13" si="17">1000*C12/168000000</f>
         <v>0.26014219576719577</v>
       </c>
       <c r="G12" s="9">
+        <f t="shared" si="15"/>
+        <v>2.7979338624338626</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="15"/>
+        <v>9.1011981646825397</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" ref="I12:I13" si="18">(C$4*168000000/C12)/1000000</f>
+        <v>0.98407718611361805</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="16"/>
+        <v>0.73196869572123802</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="16"/>
+        <v>0.90010126708253546</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="12"/>
+        <v>1.3125</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="13"/>
+        <v>0.74977309418180427</v>
+      </c>
+      <c r="N12" s="15">
         <f t="shared" si="14"/>
-        <v>2.7979338624338626</v>
-      </c>
-      <c r="H12" s="9">
+        <v>0.55769043483522895</v>
+      </c>
+      <c r="O12" s="15">
         <f t="shared" si="14"/>
-        <v>9.1011981646825397</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" ref="I12:I13" si="17">(C$4*168000000/C12)/1000000</f>
-        <v>0.98407718611361805</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="15"/>
-        <v>0.73196869572123802</v>
-      </c>
-      <c r="K12" s="12">
-        <f t="shared" si="15"/>
-        <v>0.90010126708253546</v>
-      </c>
-      <c r="L12" s="12">
-        <f t="shared" si="11"/>
-        <v>1.3125</v>
-      </c>
-      <c r="M12" s="15">
-        <f t="shared" si="12"/>
-        <v>0.74977309418180427</v>
-      </c>
-      <c r="N12" s="15">
-        <f t="shared" si="13"/>
-        <v>0.55769043483522895</v>
-      </c>
-      <c r="O12" s="15">
-        <f t="shared" si="13"/>
         <v>0.6857914415866937</v>
       </c>
       <c r="P12" s="15">
-        <f t="shared" ref="P12:P13" si="18">1-C12/C$11</f>
+        <f t="shared" ref="P12:P13" si="19">1-C12/C$11</f>
         <v>-9.9419117848472016E-2</v>
       </c>
       <c r="Q12" s="15">
-        <f t="shared" ref="Q12:R13" si="19">1-D12/D$11</f>
+        <f t="shared" ref="Q12:R13" si="20">1-D12/D$11</f>
         <v>-0.49702325986284346</v>
       </c>
       <c r="R12" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.2191041930557629</v>
       </c>
     </row>
@@ -14024,55 +14026,55 @@
         <v>1081344.0416666667</v>
       </c>
       <c r="F13" s="9">
+        <f t="shared" si="17"/>
+        <v>0.20122261904761904</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="15"/>
+        <v>1.6091432178932179</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="15"/>
+        <v>6.4365716765873024</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="18"/>
+        <v>1.2722227809758202</v>
+      </c>
+      <c r="J13" s="12">
         <f t="shared" si="16"/>
-        <v>0.20122261904761904</v>
-      </c>
-      <c r="G13" s="9">
+        <v>1.2727269873972797</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="16"/>
+        <v>1.2727272236861711</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="12"/>
+        <v>1.3125</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="13"/>
+        <v>0.96931259502919631</v>
+      </c>
+      <c r="N13" s="15">
         <f t="shared" si="14"/>
-        <v>1.6091432178932179</v>
-      </c>
-      <c r="H13" s="9">
+        <v>0.96969675230268937</v>
+      </c>
+      <c r="O13" s="15">
         <f t="shared" si="14"/>
-        <v>6.4365716765873024</v>
-      </c>
-      <c r="I13" s="12">
-        <f t="shared" si="17"/>
-        <v>1.2722227809758202</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="15"/>
-        <v>1.2727269873972797</v>
-      </c>
-      <c r="K13" s="12">
-        <f t="shared" si="15"/>
-        <v>1.2727272236861711</v>
-      </c>
-      <c r="L13" s="12">
-        <f t="shared" si="11"/>
-        <v>1.3125</v>
-      </c>
-      <c r="M13" s="15">
-        <f t="shared" si="12"/>
-        <v>0.96931259502919631</v>
-      </c>
-      <c r="N13" s="15">
-        <f t="shared" si="13"/>
-        <v>0.96969675230268937</v>
-      </c>
-      <c r="O13" s="15">
-        <f t="shared" si="13"/>
         <v>0.96969693233232079</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.14958819474841389</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.13903439320712929</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.1378221440907117</v>
       </c>
     </row>
@@ -14120,11 +14122,11 @@
         <v>0.4828797023809524</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" ref="G15:H15" si="20">1000*D15/168000000</f>
+        <f t="shared" ref="G15:H15" si="21">1000*D15/168000000</f>
         <v>3.8356439880952382</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15.330697916666667</v>
       </c>
       <c r="I15" s="12">
@@ -14132,27 +14134,27 @@
         <v>0.53015274557561975</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" ref="J15:K15" si="21">(D$4*168000000/D15)/1000000</f>
+        <f t="shared" ref="J15:K15" si="22">(D$4*168000000/D15)/1000000</f>
         <v>0.53393902206680732</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.53435271143749563</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.6614173228346456</v>
       </c>
       <c r="M15" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.80154046057266326</v>
       </c>
       <c r="N15" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.80726495002957777</v>
       </c>
       <c r="O15" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.80789040895907083</v>
       </c>
       <c r="P15" s="10" t="s">
@@ -14200,7 +14202,7 @@
         <v>21</v>
       </c>
       <c r="L16" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.6614173228346456</v>
       </c>
       <c r="M16" s="15" t="s">
@@ -14246,11 +14248,11 @@
         <v>0.39318934523809523</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" ref="G17:H17" si="22">1000*D17/168000000</f>
+        <f t="shared" ref="G17:H17" si="23">1000*D17/168000000</f>
         <v>3.145142797017797</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12.580571180555557</v>
       </c>
       <c r="I17" s="12">
@@ -14258,27 +14260,27 @@
         <v>0.65108580153660978</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" ref="J17:K17" si="23">(D$4*168000000/D17)/1000000</f>
+        <f t="shared" ref="J17:K17" si="24">(D$4*168000000/D17)/1000000</f>
         <v>0.65116280314582198</v>
       </c>
       <c r="K17" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.65116280353482658</v>
       </c>
       <c r="L17" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.6614173228346456</v>
       </c>
       <c r="M17" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.98437972375177918</v>
       </c>
       <c r="N17" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.9844961428514214</v>
       </c>
       <c r="O17" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98449614343955938</v>
       </c>
       <c r="P17" s="15">
@@ -15608,7 +15610,7 @@
         <v>81123.789999999994</v>
       </c>
       <c r="D105" s="2" t="e">
-        <f t="shared" ref="D105:F105" si="2">AVERAGE(D6:D104)</f>
+        <f t="shared" ref="D105:E105" si="2">AVERAGE(D6:D104)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E105" s="2" t="e">
@@ -22866,7 +22868,7 @@
         <v>644388.18999999994</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" ref="D105:F105" si="2">AVERAGE(D6:D104)</f>
+        <f t="shared" ref="D105:E105" si="2">AVERAGE(D6:D104)</f>
         <v>540689.62626262626</v>
       </c>
       <c r="E105" s="2" t="e">
@@ -24826,7 +24828,7 @@
         <v>22741.09</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" ref="D105:F105" si="2">AVERAGE(D6:D104)</f>
+        <f t="shared" ref="D105" si="2">AVERAGE(D6:D104)</f>
         <v>84869</v>
       </c>
       <c r="E105" s="2">
@@ -26484,7 +26486,7 @@
         <v>39751.800000000003</v>
       </c>
       <c r="D105" s="2" t="e">
-        <f t="shared" ref="D105:F105" si="2">AVERAGE(D6:D104)</f>
+        <f t="shared" ref="D105:E105" si="2">AVERAGE(D6:D104)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E105" s="2">
